--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_117_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_117_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.160228411216089, 5.698699724648598]</t>
+          <t>[5.1621618716544075, 5.69676626421028]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.17793500665758355, 0.47549492914306146]</t>
+          <t>[0.17795406697014737, 0.47547586883049764]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.106629039104305e-05</v>
+        <v>6.095488438595531e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>6.106629039104305e-05</v>
+        <v>6.095488438595531e-05</v>
       </c>
       <c r="W2" t="n">
         <v>4.503063063063166</v>
